--- a/Jogos_do_Dia/2024-04-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -208,12 +208,12 @@
     <t>Germany Bundesliga</t>
   </si>
   <si>
+    <t>Bulgaria First League</t>
+  </si>
+  <si>
     <t>Greece Super League</t>
   </si>
   <si>
-    <t>Bulgaria First League</t>
-  </si>
-  <si>
     <t>Italy Serie B</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Magdeburg</t>
   </si>
   <si>
+    <t>Lyngby</t>
+  </si>
+  <si>
     <t>Vejle</t>
   </si>
   <si>
-    <t>Lyngby</t>
-  </si>
-  <si>
     <t>Real Oviedo</t>
   </si>
   <si>
@@ -385,33 +385,33 @@
     <t>Utrecht</t>
   </si>
   <si>
+    <t>Sigma Olomouc</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>CD Mafra</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
     <t>Zlín</t>
   </si>
   <si>
-    <t>Rizespor</t>
-  </si>
-  <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
-    <t>CD Mafra</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Clermont</t>
+    <t>Liverpool</t>
   </si>
   <si>
     <t>Baník Ostrava</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Sigma Olomouc</t>
-  </si>
-  <si>
     <t>Bravo</t>
   </si>
   <si>
@@ -424,18 +424,18 @@
     <t>Darmstadt 98</t>
   </si>
   <si>
+    <t>KV Kortrijk</t>
+  </si>
+  <si>
+    <t>AGF</t>
+  </si>
+  <si>
+    <t>Etar</t>
+  </si>
+  <si>
     <t>Panathinaikos</t>
   </si>
   <si>
-    <t>Etar</t>
-  </si>
-  <si>
-    <t>KV Kortrijk</t>
-  </si>
-  <si>
-    <t>AGF</t>
-  </si>
-  <si>
     <t>Venezia</t>
   </si>
   <si>
@@ -448,15 +448,15 @@
     <t>Granada CF</t>
   </si>
   <si>
+    <t>Young Boys</t>
+  </si>
+  <si>
+    <t>Stade Lausanne-Ouchy</t>
+  </si>
+  <si>
     <t>Napredak</t>
   </si>
   <si>
-    <t>Young Boys</t>
-  </si>
-  <si>
-    <t>Stade Lausanne-Ouchy</t>
-  </si>
-  <si>
     <t>Vojvodina</t>
   </si>
   <si>
@@ -478,12 +478,12 @@
     <t>Ajax</t>
   </si>
   <si>
+    <t>Rapid Wien</t>
+  </si>
+  <si>
     <t>Red Star Belgrade</t>
   </si>
   <si>
-    <t>Rapid Wien</t>
-  </si>
-  <si>
     <t>Dinamo Bucureşti</t>
   </si>
   <si>
@@ -502,42 +502,42 @@
     <t>Podbrezová</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Fatih Karagümrük</t>
+  </si>
+  <si>
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>Udinese</t>
-  </si>
-  <si>
     <t>Viktoria Plzeň</t>
   </si>
   <si>
-    <t>Fatih Karagümrük</t>
-  </si>
-  <si>
     <t>RSC Anderlecht</t>
   </si>
   <si>
+    <t>Athletic Club Bilbao</t>
+  </si>
+  <si>
+    <t>Burgos CF</t>
+  </si>
+  <si>
     <t>Real Zaragoza</t>
   </si>
   <si>
-    <t>Burgos CF</t>
-  </si>
-  <si>
-    <t>Athletic Club Bilbao</t>
-  </si>
-  <si>
     <t>Beroe</t>
   </si>
   <si>
+    <t>FC Arouca</t>
+  </si>
+  <si>
     <t>Portimonense</t>
   </si>
   <si>
     <t>Istra 1961</t>
   </si>
   <si>
-    <t>FC Arouca</t>
-  </si>
-  <si>
     <t>OH Leuven</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Inter Milan</t>
   </si>
   <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
     <t>Racing Club de Ferrol</t>
   </si>
   <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
     <t>CS Marítimo</t>
   </si>
   <si>
@@ -616,12 +616,12 @@
     <t>Hamburger SV</t>
   </si>
   <si>
+    <t>Hvidovre</t>
+  </si>
+  <si>
     <t>Randers</t>
   </si>
   <si>
-    <t>Hvidovre</t>
-  </si>
-  <si>
     <t>Mirandés</t>
   </si>
   <si>
@@ -643,33 +643,33 @@
     <t>Go Ahead Eagles</t>
   </si>
   <si>
+    <t>Jablonec</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>İstanbulspor</t>
+  </si>
+  <si>
+    <t>CD Feirense</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Pardubice</t>
   </si>
   <si>
-    <t>Antalyaspor</t>
-  </si>
-  <si>
-    <t>İstanbulspor</t>
-  </si>
-  <si>
-    <t>CD Feirense</t>
-  </si>
-  <si>
-    <t>AC Milan</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
+    <t>Crystal Palace</t>
   </si>
   <si>
     <t>Karviná</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Jablonec</t>
-  </si>
-  <si>
     <t>Maribor</t>
   </si>
   <si>
@@ -682,18 +682,18 @@
     <t>Freiburg</t>
   </si>
   <si>
+    <t>Sporting Charleroi</t>
+  </si>
+  <si>
+    <t>Brøndby</t>
+  </si>
+  <si>
+    <t>Levski Krumovgrad</t>
+  </si>
+  <si>
     <t>Lamia</t>
   </si>
   <si>
-    <t>Levski Krumovgrad</t>
-  </si>
-  <si>
-    <t>Sporting Charleroi</t>
-  </si>
-  <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
     <t>Brescia</t>
   </si>
   <si>
@@ -706,15 +706,15 @@
     <t>Deportivo Alavés</t>
   </si>
   <si>
+    <t>Luzern</t>
+  </si>
+  <si>
+    <t>Winterthur</t>
+  </si>
+  <si>
     <t>Radnik Surdulica</t>
   </si>
   <si>
-    <t>Luzern</t>
-  </si>
-  <si>
-    <t>Winterthur</t>
-  </si>
-  <si>
     <t>Bačka Topola</t>
   </si>
   <si>
@@ -736,12 +736,12 @@
     <t>Twente</t>
   </si>
   <si>
+    <t>Austria Klagenfurt</t>
+  </si>
+  <si>
     <t>Železničar Pančevo</t>
   </si>
   <si>
-    <t>Austria Klagenfurt</t>
-  </si>
-  <si>
     <t>CSM Iaşi</t>
   </si>
   <si>
@@ -760,42 +760,42 @@
     <t>Spartak Trnava</t>
   </si>
   <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
     <t>København</t>
   </si>
   <si>
-    <t>Roma</t>
-  </si>
-  <si>
     <t>Slavia Praha</t>
   </si>
   <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
     <t>Union Saint-Gilloise</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Racing Santander</t>
+  </si>
+  <si>
     <t>Elche CF</t>
   </si>
   <si>
-    <t>Racing Santander</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
+    <t>Boavista FC</t>
+  </si>
+  <si>
     <t>Casa Pia</t>
   </si>
   <si>
     <t>Rijeka</t>
   </si>
   <si>
-    <t>Boavista FC</t>
-  </si>
-  <si>
     <t>KAA Gent</t>
   </si>
   <si>
@@ -820,10 +820,10 @@
     <t>Cagliari</t>
   </si>
   <si>
+    <t>Almería</t>
+  </si>
+  <si>
     <t>SD Huesca</t>
-  </si>
-  <si>
-    <t>Almería</t>
   </si>
   <si>
     <t>Santa Clara</t>
@@ -1348,22 +1348,22 @@
         <v>186</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H2">
         <v>2.25</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2">
         <v>3.6</v>
       </c>
       <c r="L2">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M2">
         <v>1.33</v>
@@ -1515,10 +1515,10 @@
         <v>4.2</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T3">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U3">
         <v>1.62</v>
@@ -1619,13 +1619,13 @@
         <v>3.4</v>
       </c>
       <c r="J4">
-        <v>2.21</v>
+        <v>2.41</v>
       </c>
       <c r="K4">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>2.73</v>
+        <v>2.82</v>
       </c>
       <c r="M4">
         <v>1.41</v>
@@ -1646,10 +1646,10 @@
         <v>3.3</v>
       </c>
       <c r="S4">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U4">
         <v>1.72</v>
@@ -1750,13 +1750,13 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K5">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L5">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M5">
         <v>1.33</v>
@@ -1780,7 +1780,7 @@
         <v>1.7</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="U5">
         <v>1.57</v>
@@ -1881,13 +1881,13 @@
         <v>2.65</v>
       </c>
       <c r="J6">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K6">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M6">
         <v>1.4</v>
@@ -1908,10 +1908,10 @@
         <v>3.35</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T6">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U6">
         <v>1.8</v>
@@ -2012,13 +2012,13 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="K7">
         <v>5.5</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="M7">
         <v>1.25</v>
@@ -2039,7 +2039,7 @@
         <v>4.95</v>
       </c>
       <c r="S7">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="T7">
         <v>2.55</v>
@@ -2146,7 +2146,7 @@
         <v>2.5</v>
       </c>
       <c r="K8">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L8">
         <v>2.6</v>
@@ -2170,10 +2170,10 @@
         <v>3.44</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U8">
         <v>1.72</v>
@@ -2274,13 +2274,13 @@
         <v>3.68</v>
       </c>
       <c r="J9">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>3.18</v>
       </c>
       <c r="L9">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M9">
         <v>1.43</v>
@@ -2304,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="T9">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U9">
         <v>1.82</v>
@@ -2405,13 +2405,13 @@
         <v>1.73</v>
       </c>
       <c r="J10">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="K10">
-        <v>6.25</v>
+        <v>5.6</v>
       </c>
       <c r="L10">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M10">
         <v>1.25</v>
@@ -2432,10 +2432,10 @@
         <v>5.5</v>
       </c>
       <c r="S10">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="T10">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -2539,10 +2539,10 @@
         <v>2.5</v>
       </c>
       <c r="K11">
+        <v>3.1</v>
+      </c>
+      <c r="L11">
         <v>3</v>
-      </c>
-      <c r="L11">
-        <v>2.95</v>
       </c>
       <c r="M11">
         <v>1.53</v>
@@ -2563,7 +2563,7 @@
         <v>2.71</v>
       </c>
       <c r="S11">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="T11">
         <v>1.53</v>
@@ -2673,7 +2673,7 @@
         <v>3.75</v>
       </c>
       <c r="L12">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
         <v>1.33</v>
@@ -2694,10 +2694,10 @@
         <v>4</v>
       </c>
       <c r="S12">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="U12">
         <v>1.65</v>
@@ -2798,13 +2798,13 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L13">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="M13">
         <v>1.36</v>
@@ -2828,7 +2828,7 @@
         <v>1.85</v>
       </c>
       <c r="T13">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U13">
         <v>1.67</v>
@@ -2929,13 +2929,13 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="K14">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="M14">
         <v>1.29</v>
@@ -2956,10 +2956,10 @@
         <v>4.5</v>
       </c>
       <c r="S14">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="U14">
         <v>1.73</v>
@@ -3060,13 +3060,13 @@
         <v>2.5</v>
       </c>
       <c r="J15">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L15">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="M15">
         <v>1.25</v>
@@ -3087,10 +3087,10 @@
         <v>5.25</v>
       </c>
       <c r="S15">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="T15">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="U15">
         <v>1.4</v>
@@ -3182,115 +3182,115 @@
         <v>200</v>
       </c>
       <c r="G16">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="H16">
+        <v>2.3</v>
+      </c>
+      <c r="I16">
+        <v>4.5</v>
+      </c>
+      <c r="J16">
+        <v>1.76</v>
+      </c>
+      <c r="K16">
+        <v>3.8</v>
+      </c>
+      <c r="L16">
+        <v>3.7</v>
+      </c>
+      <c r="M16">
+        <v>1.33</v>
+      </c>
+      <c r="N16">
+        <v>3.25</v>
+      </c>
+      <c r="O16">
+        <v>1.04</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>1.22</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>1.71</v>
+      </c>
+      <c r="T16">
+        <v>2.15</v>
+      </c>
+      <c r="U16">
+        <v>1.7</v>
+      </c>
+      <c r="V16">
         <v>2.05</v>
       </c>
-      <c r="I16">
+      <c r="W16">
+        <v>1.22</v>
+      </c>
+      <c r="X16">
+        <v>1.26</v>
+      </c>
+      <c r="Y16">
+        <v>2.04</v>
+      </c>
+      <c r="Z16">
+        <v>1.42</v>
+      </c>
+      <c r="AA16">
+        <v>0.75</v>
+      </c>
+      <c r="AB16">
+        <v>1.35</v>
+      </c>
+      <c r="AC16">
+        <v>1.13</v>
+      </c>
+      <c r="AD16">
+        <v>2.48</v>
+      </c>
+      <c r="AE16">
+        <v>1.82</v>
+      </c>
+      <c r="AF16">
+        <v>8.5</v>
+      </c>
+      <c r="AG16">
+        <v>2.32</v>
+      </c>
+      <c r="AH16">
+        <v>1.12</v>
+      </c>
+      <c r="AI16">
+        <v>5</v>
+      </c>
+      <c r="AJ16">
+        <v>1.32</v>
+      </c>
+      <c r="AK16">
         <v>3.1</v>
       </c>
-      <c r="J16">
-        <v>2.9</v>
-      </c>
-      <c r="K16">
-        <v>3.05</v>
-      </c>
-      <c r="L16">
+      <c r="AL16">
+        <v>1.52</v>
+      </c>
+      <c r="AM16">
         <v>2.4</v>
       </c>
-      <c r="M16">
-        <v>1.44</v>
-      </c>
-      <c r="N16">
-        <v>2.63</v>
-      </c>
-      <c r="O16">
-        <v>1.06</v>
-      </c>
-      <c r="P16">
-        <v>7.5</v>
-      </c>
-      <c r="Q16">
-        <v>1.33</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>1.7</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
-      <c r="W16">
-        <v>1.55</v>
-      </c>
-      <c r="X16">
-        <v>1.35</v>
-      </c>
-      <c r="Y16">
-        <v>1.4</v>
-      </c>
-      <c r="Z16">
-        <v>1.08</v>
-      </c>
-      <c r="AA16">
-        <v>1.08</v>
-      </c>
-      <c r="AB16">
-        <v>1.25</v>
-      </c>
-      <c r="AC16">
-        <v>1.35</v>
-      </c>
-      <c r="AD16">
-        <v>2.6</v>
-      </c>
-      <c r="AE16">
-        <v>2.54</v>
-      </c>
-      <c r="AF16">
-        <v>8</v>
-      </c>
-      <c r="AG16">
-        <v>1.69</v>
-      </c>
-      <c r="AH16">
-        <v>1.25</v>
-      </c>
-      <c r="AI16">
-        <v>3.6</v>
-      </c>
-      <c r="AJ16">
-        <v>1.46</v>
-      </c>
-      <c r="AK16">
-        <v>2.55</v>
-      </c>
-      <c r="AL16">
-        <v>1.75</v>
-      </c>
-      <c r="AM16">
-        <v>1.98</v>
-      </c>
       <c r="AN16">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AO16">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="AP16">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3313,115 +3313,115 @@
         <v>201</v>
       </c>
       <c r="G17">
+        <v>3.6</v>
+      </c>
+      <c r="H17">
+        <v>2.05</v>
+      </c>
+      <c r="I17">
+        <v>3.1</v>
+      </c>
+      <c r="J17">
+        <v>2.88</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
         <v>2.38</v>
       </c>
-      <c r="H17">
-        <v>2.3</v>
-      </c>
-      <c r="I17">
-        <v>4.5</v>
-      </c>
-      <c r="J17">
+      <c r="M17">
+        <v>1.44</v>
+      </c>
+      <c r="N17">
+        <v>2.63</v>
+      </c>
+      <c r="O17">
+        <v>1.06</v>
+      </c>
+      <c r="P17">
+        <v>7.5</v>
+      </c>
+      <c r="Q17">
+        <v>1.33</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>2.12</v>
+      </c>
+      <c r="T17">
+        <v>1.72</v>
+      </c>
+      <c r="U17">
         <v>1.8</v>
       </c>
-      <c r="K17">
-        <v>3.85</v>
-      </c>
-      <c r="L17">
-        <v>3.85</v>
-      </c>
-      <c r="M17">
-        <v>1.33</v>
-      </c>
-      <c r="N17">
-        <v>3.25</v>
-      </c>
-      <c r="O17">
-        <v>1.04</v>
-      </c>
-      <c r="P17">
-        <v>10</v>
-      </c>
-      <c r="Q17">
-        <v>1.22</v>
-      </c>
-      <c r="R17">
-        <v>4</v>
-      </c>
-      <c r="S17">
-        <v>1.7</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.7</v>
-      </c>
       <c r="V17">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1.22</v>
+        <v>1.55</v>
       </c>
       <c r="X17">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="Y17">
-        <v>2.04</v>
+        <v>1.4</v>
       </c>
       <c r="Z17">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AA17">
-        <v>0.75</v>
+        <v>1.08</v>
       </c>
       <c r="AB17">
+        <v>1.25</v>
+      </c>
+      <c r="AC17">
         <v>1.35</v>
       </c>
-      <c r="AC17">
-        <v>1.13</v>
-      </c>
       <c r="AD17">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="AE17">
-        <v>1.82</v>
+        <v>2.54</v>
       </c>
       <c r="AF17">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG17">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="AH17">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AI17">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AJ17">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AK17">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="AL17">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="AM17">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="AN17">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="AO17">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="AP17">
-        <v>2.35</v>
+        <v>2.85</v>
       </c>
       <c r="AQ17">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3453,13 +3453,13 @@
         <v>5.5</v>
       </c>
       <c r="J18">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="K18">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="M18">
         <v>1.47</v>
@@ -3480,10 +3480,10 @@
         <v>2.9</v>
       </c>
       <c r="S18">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="T18">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U18">
         <v>2.1</v>
@@ -3584,10 +3584,10 @@
         <v>3.4</v>
       </c>
       <c r="J19">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K19">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L19">
         <v>2.65</v>
@@ -3611,10 +3611,10 @@
         <v>3</v>
       </c>
       <c r="S19">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T19">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="U19">
         <v>1.91</v>
@@ -3715,13 +3715,13 @@
         <v>2.6</v>
       </c>
       <c r="J20">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K20">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="M20">
         <v>1.33</v>
@@ -3742,10 +3742,10 @@
         <v>3.85</v>
       </c>
       <c r="S20">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U20">
         <v>1.57</v>
@@ -3778,25 +3778,25 @@
         <v>3.15</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL20">
         <v>1.56</v>
@@ -3846,13 +3846,13 @@
         <v>3.75</v>
       </c>
       <c r="J21">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
         <v>1.33</v>
@@ -3873,10 +3873,10 @@
         <v>3.86</v>
       </c>
       <c r="S21">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U21">
         <v>1.67</v>
@@ -3930,16 +3930,16 @@
         <v>2.84</v>
       </c>
       <c r="AL21">
+        <v>1.74</v>
+      </c>
+      <c r="AM21">
+        <v>2.05</v>
+      </c>
+      <c r="AN21">
+        <v>2.15</v>
+      </c>
+      <c r="AO21">
         <v>1.67</v>
-      </c>
-      <c r="AM21">
-        <v>2.17</v>
-      </c>
-      <c r="AN21">
-        <v>2.07</v>
-      </c>
-      <c r="AO21">
-        <v>1.74</v>
       </c>
       <c r="AP21">
         <v>2.64</v>
@@ -3977,13 +3977,13 @@
         <v>2.4</v>
       </c>
       <c r="J22">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="K22">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L22">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M22">
         <v>1.4</v>
@@ -4007,7 +4007,7 @@
         <v>1.85</v>
       </c>
       <c r="T22">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U22">
         <v>1.8</v>
@@ -4108,13 +4108,13 @@
         <v>1.8</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L23">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M23">
         <v>1.29</v>
@@ -4135,10 +4135,10 @@
         <v>4.65</v>
       </c>
       <c r="S23">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="T23">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="U23">
         <v>1.95</v>
@@ -4239,13 +4239,13 @@
         <v>4.5</v>
       </c>
       <c r="J24">
-        <v>1.73</v>
+        <v>2.18</v>
       </c>
       <c r="K24">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L24">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>1.3</v>
@@ -4266,10 +4266,10 @@
         <v>4.25</v>
       </c>
       <c r="S24">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="T24">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U24">
         <v>1.62</v>
@@ -4361,85 +4361,85 @@
         <v>209</v>
       </c>
       <c r="G25">
-        <v>2.52</v>
+        <v>2.73</v>
       </c>
       <c r="H25">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="I25">
-        <v>4.43</v>
+        <v>3.89</v>
       </c>
       <c r="J25">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="K25">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="M25">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="N25">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="O25">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P25">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="Q25">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R25">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="T25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="W25">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X25">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y25">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="Z25">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AA25">
-        <v>1.23</v>
+        <v>0.79</v>
       </c>
       <c r="AB25">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AC25">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AD25">
-        <v>2.69</v>
+        <v>2.91</v>
       </c>
       <c r="AE25">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AF25">
         <v>9.4</v>
       </c>
       <c r="AG25">
-        <v>2.43</v>
+        <v>2.34</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -4448,28 +4448,28 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AM25">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AN25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AO25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AQ25">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4501,10 +4501,10 @@
         <v>3.75</v>
       </c>
       <c r="J26">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K26">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -4528,10 +4528,10 @@
         <v>3.75</v>
       </c>
       <c r="S26">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T26">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U26">
         <v>1.65</v>
@@ -4632,13 +4632,13 @@
         <v>6</v>
       </c>
       <c r="J27">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="K27">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="M27">
         <v>1.33</v>
@@ -4659,10 +4659,10 @@
         <v>3.6</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="T27">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="U27">
         <v>1.95</v>
@@ -4763,13 +4763,13 @@
         <v>4.2</v>
       </c>
       <c r="J28">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="K28">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M28">
         <v>1.41</v>
@@ -4790,10 +4790,10 @@
         <v>3.3</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T28">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U28">
         <v>1.8</v>
@@ -4900,7 +4900,7 @@
         <v>4.2</v>
       </c>
       <c r="L29">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M29">
         <v>1.3</v>
@@ -4921,10 +4921,10 @@
         <v>4.5</v>
       </c>
       <c r="S29">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="T29">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U29">
         <v>1.67</v>
@@ -5025,13 +5025,13 @@
         <v>2.75</v>
       </c>
       <c r="J30">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K30">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L30">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M30">
         <v>1.33</v>
@@ -5052,10 +5052,10 @@
         <v>4.1</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U30">
         <v>1.62</v>
@@ -5147,85 +5147,85 @@
         <v>215</v>
       </c>
       <c r="G31">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="H31">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I31">
-        <v>6.5</v>
+        <v>4.43</v>
       </c>
       <c r="J31">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L31">
-        <v>7.25</v>
+        <v>3.7</v>
       </c>
       <c r="M31">
+        <v>1.36</v>
+      </c>
+      <c r="N31">
+        <v>3.14</v>
+      </c>
+      <c r="O31">
+        <v>1.07</v>
+      </c>
+      <c r="P31">
+        <v>7.5</v>
+      </c>
+      <c r="Q31">
+        <v>1.29</v>
+      </c>
+      <c r="R31">
+        <v>3.3</v>
+      </c>
+      <c r="S31">
+        <v>1.85</v>
+      </c>
+      <c r="T31">
+        <v>1.9</v>
+      </c>
+      <c r="U31">
+        <v>1.85</v>
+      </c>
+      <c r="V31">
+        <v>1.85</v>
+      </c>
+      <c r="W31">
+        <v>1.29</v>
+      </c>
+      <c r="X31">
         <v>1.3</v>
       </c>
-      <c r="N31">
-        <v>3.4</v>
-      </c>
-      <c r="O31">
-        <v>1.03</v>
-      </c>
-      <c r="P31">
-        <v>19.5</v>
-      </c>
-      <c r="Q31">
-        <v>1.19</v>
-      </c>
-      <c r="R31">
-        <v>4.83</v>
-      </c>
-      <c r="S31">
-        <v>1.55</v>
-      </c>
-      <c r="T31">
-        <v>2.3</v>
-      </c>
-      <c r="U31">
-        <v>1.82</v>
-      </c>
-      <c r="V31">
+      <c r="Y31">
         <v>1.88</v>
       </c>
-      <c r="W31">
-        <v>1.03</v>
-      </c>
-      <c r="X31">
-        <v>1.13</v>
-      </c>
-      <c r="Y31">
-        <v>3.2</v>
-      </c>
       <c r="Z31">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AA31">
-        <v>0.46</v>
+        <v>1.23</v>
       </c>
       <c r="AB31">
-        <v>1.93</v>
+        <v>1.47</v>
       </c>
       <c r="AC31">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AD31">
-        <v>3.21</v>
+        <v>2.69</v>
       </c>
       <c r="AE31">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="AF31">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AG31">
-        <v>4.2</v>
+        <v>2.43</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -5234,28 +5234,28 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AK31">
-        <v>3.42</v>
+        <v>3.64</v>
       </c>
       <c r="AL31">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AM31">
         <v>2.57</v>
       </c>
       <c r="AN31">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AO31">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AP31">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="AQ31">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -5287,13 +5287,13 @@
         <v>8.5</v>
       </c>
       <c r="J32">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="K32">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M32">
         <v>1.22</v>
@@ -5314,10 +5314,10 @@
         <v>6.4</v>
       </c>
       <c r="S32">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T32">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="U32">
         <v>1.91</v>
@@ -5409,115 +5409,115 @@
         <v>217</v>
       </c>
       <c r="G33">
-        <v>2.73</v>
+        <v>1.8</v>
       </c>
       <c r="H33">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="I33">
-        <v>3.89</v>
+        <v>6.5</v>
       </c>
       <c r="J33">
-        <v>2.05</v>
+        <v>1.34</v>
       </c>
       <c r="K33">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>1.3</v>
+      </c>
+      <c r="N33">
         <v>3.4</v>
       </c>
-      <c r="M33">
-        <v>1.39</v>
-      </c>
-      <c r="N33">
-        <v>3.01</v>
-      </c>
       <c r="O33">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P33">
-        <v>7.8</v>
+        <v>19.5</v>
       </c>
       <c r="Q33">
+        <v>1.19</v>
+      </c>
+      <c r="R33">
+        <v>4.83</v>
+      </c>
+      <c r="S33">
+        <v>1.53</v>
+      </c>
+      <c r="T33">
+        <v>2.43</v>
+      </c>
+      <c r="U33">
+        <v>1.82</v>
+      </c>
+      <c r="V33">
+        <v>1.88</v>
+      </c>
+      <c r="W33">
+        <v>1.03</v>
+      </c>
+      <c r="X33">
+        <v>1.13</v>
+      </c>
+      <c r="Y33">
+        <v>3.2</v>
+      </c>
+      <c r="Z33">
+        <v>1.38</v>
+      </c>
+      <c r="AA33">
+        <v>0.46</v>
+      </c>
+      <c r="AB33">
+        <v>1.93</v>
+      </c>
+      <c r="AC33">
+        <v>1.28</v>
+      </c>
+      <c r="AD33">
+        <v>3.21</v>
+      </c>
+      <c r="AE33">
+        <v>1.29</v>
+      </c>
+      <c r="AF33">
+        <v>11</v>
+      </c>
+      <c r="AG33">
+        <v>4.2</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>1.25</v>
       </c>
-      <c r="R33">
-        <v>3.5</v>
-      </c>
-      <c r="S33">
-        <v>1.9</v>
-      </c>
-      <c r="T33">
-        <v>1.8</v>
-      </c>
-      <c r="U33">
-        <v>1.72</v>
-      </c>
-      <c r="V33">
-        <v>1.97</v>
-      </c>
-      <c r="W33">
-        <v>1.25</v>
-      </c>
-      <c r="X33">
-        <v>1.33</v>
-      </c>
-      <c r="Y33">
-        <v>1.62</v>
-      </c>
-      <c r="Z33">
-        <v>1.46</v>
-      </c>
-      <c r="AA33">
-        <v>0.79</v>
-      </c>
-      <c r="AB33">
-        <v>1.56</v>
-      </c>
-      <c r="AC33">
-        <v>1.35</v>
-      </c>
-      <c r="AD33">
-        <v>2.91</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AL33">
         <v>1.48</v>
       </c>
       <c r="AM33">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AN33">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AP33">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="AQ33">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -5540,61 +5540,61 @@
         <v>218</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z34">
         <v>1.67</v>
@@ -5680,13 +5680,13 @@
         <v>4.33</v>
       </c>
       <c r="J35">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K35">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L35">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="M35">
         <v>1.33</v>
@@ -5707,10 +5707,10 @@
         <v>3.75</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="T35">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="U35">
         <v>1.75</v>
@@ -5811,13 +5811,13 @@
         <v>3.4</v>
       </c>
       <c r="J36">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="K36">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L36">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M36">
         <v>1.3</v>
@@ -5838,7 +5838,7 @@
         <v>4.5</v>
       </c>
       <c r="S36">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T36">
         <v>2.3</v>
@@ -5942,13 +5942,13 @@
         <v>2.4</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K37">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L37">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="M37">
         <v>1.3</v>
@@ -5969,7 +5969,7 @@
         <v>4.33</v>
       </c>
       <c r="S37">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T37">
         <v>2.1</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2">
         <v>45396</v>
@@ -6055,7 +6055,7 @@
         <v>83</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>136</v>
@@ -6064,120 +6064,120 @@
         <v>222</v>
       </c>
       <c r="G38">
-        <v>1.53</v>
+        <v>3.4</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="I38">
-        <v>12</v>
+        <v>2.95</v>
       </c>
       <c r="J38">
-        <v>1.12</v>
+        <v>3.1</v>
       </c>
       <c r="K38">
-        <v>7.5</v>
+        <v>3.55</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>2.26</v>
       </c>
       <c r="M38">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="N38">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="O38">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P38">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Q38">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="R38">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="S38">
-        <v>1.45</v>
+        <v>1.91</v>
       </c>
       <c r="T38">
-        <v>2.55</v>
+        <v>1.79</v>
       </c>
       <c r="U38">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="V38">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="X38">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="Y38">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Z38">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>0.93</v>
+        <v>0.47</v>
       </c>
       <c r="AB38">
-        <v>1.85</v>
+        <v>1.19</v>
       </c>
       <c r="AC38">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AD38">
-        <v>2.91</v>
+        <v>2.35</v>
       </c>
       <c r="AE38">
-        <v>1.06</v>
+        <v>1.95</v>
       </c>
       <c r="AF38">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AG38">
-        <v>11.4</v>
+        <v>2.05</v>
       </c>
       <c r="AH38">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="AI38">
-        <v>2.76</v>
+        <v>4.5</v>
       </c>
       <c r="AJ38">
-        <v>1.74</v>
+        <v>1.31</v>
       </c>
       <c r="AK38">
-        <v>2.06</v>
+        <v>3.04</v>
       </c>
       <c r="AL38">
+        <v>1.64</v>
+      </c>
+      <c r="AM38">
         <v>2.22</v>
       </c>
-      <c r="AM38">
-        <v>1.63</v>
-      </c>
       <c r="AN38">
-        <v>2.88</v>
+        <v>1.9</v>
       </c>
       <c r="AO38">
-        <v>1.34</v>
+        <v>1.9</v>
       </c>
       <c r="AP38">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="AQ38">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="39" spans="1:43">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2">
         <v>45396</v>
@@ -6186,7 +6186,7 @@
         <v>83</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
         <v>137</v>
@@ -6195,120 +6195,120 @@
         <v>223</v>
       </c>
       <c r="G39">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I39">
         <v>2.88</v>
       </c>
       <c r="J39">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K39">
+        <v>3.4</v>
+      </c>
+      <c r="L39">
+        <v>2.1</v>
+      </c>
+      <c r="M39">
+        <v>1.44</v>
+      </c>
+      <c r="N39">
+        <v>2.63</v>
+      </c>
+      <c r="O39">
+        <v>1.06</v>
+      </c>
+      <c r="P39">
+        <v>8.5</v>
+      </c>
+      <c r="Q39">
+        <v>1.35</v>
+      </c>
+      <c r="R39">
+        <v>3.1</v>
+      </c>
+      <c r="S39">
+        <v>2.1</v>
+      </c>
+      <c r="T39">
+        <v>1.7</v>
+      </c>
+      <c r="U39">
+        <v>1.91</v>
+      </c>
+      <c r="V39">
+        <v>1.91</v>
+      </c>
+      <c r="W39">
+        <v>1.72</v>
+      </c>
+      <c r="X39">
+        <v>1.32</v>
+      </c>
+      <c r="Y39">
+        <v>1.31</v>
+      </c>
+      <c r="Z39">
+        <v>1.5</v>
+      </c>
+      <c r="AA39">
+        <v>2.25</v>
+      </c>
+      <c r="AB39">
+        <v>1.47</v>
+      </c>
+      <c r="AC39">
+        <v>1.29</v>
+      </c>
+      <c r="AD39">
+        <v>2.76</v>
+      </c>
+      <c r="AE39">
+        <v>2.1</v>
+      </c>
+      <c r="AF39">
+        <v>7.5</v>
+      </c>
+      <c r="AG39">
+        <v>1.95</v>
+      </c>
+      <c r="AH39">
+        <v>1.5</v>
+      </c>
+      <c r="AI39">
+        <v>2.4</v>
+      </c>
+      <c r="AJ39">
+        <v>1.85</v>
+      </c>
+      <c r="AK39">
+        <v>1.85</v>
+      </c>
+      <c r="AL39">
+        <v>2.4</v>
+      </c>
+      <c r="AM39">
+        <v>1.5</v>
+      </c>
+      <c r="AN39">
+        <v>3.2</v>
+      </c>
+      <c r="AO39">
+        <v>1.3</v>
+      </c>
+      <c r="AP39">
         <v>2.9</v>
       </c>
-      <c r="L39">
-        <v>2.33</v>
-      </c>
-      <c r="M39">
-        <v>1.51</v>
-      </c>
-      <c r="N39">
-        <v>2.46</v>
-      </c>
-      <c r="O39">
-        <v>1.05</v>
-      </c>
-      <c r="P39">
-        <v>7</v>
-      </c>
-      <c r="Q39">
-        <v>1.41</v>
-      </c>
-      <c r="R39">
-        <v>2.6</v>
-      </c>
-      <c r="S39">
-        <v>2.3</v>
-      </c>
-      <c r="T39">
-        <v>1.55</v>
-      </c>
-      <c r="U39">
-        <v>2</v>
-      </c>
-      <c r="V39">
-        <v>1.73</v>
-      </c>
-      <c r="W39">
-        <v>1.7</v>
-      </c>
-      <c r="X39">
-        <v>1.35</v>
-      </c>
-      <c r="Y39">
-        <v>1.3</v>
-      </c>
-      <c r="Z39">
-        <v>0.57</v>
-      </c>
-      <c r="AA39">
-        <v>0.93</v>
-      </c>
-      <c r="AB39">
-        <v>1.27</v>
-      </c>
-      <c r="AC39">
-        <v>1.36</v>
-      </c>
-      <c r="AD39">
-        <v>2.63</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2">
         <v>45396</v>
@@ -6317,7 +6317,7 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
         <v>138</v>
@@ -6326,120 +6326,120 @@
         <v>224</v>
       </c>
       <c r="G40">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="H40">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="J40">
-        <v>3.05</v>
+        <v>3.81</v>
       </c>
       <c r="K40">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="L40">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="M40">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="N40">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="O40">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P40">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q40">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="R40">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="T40">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>1.73</v>
+      </c>
+      <c r="W40">
         <v>1.7</v>
       </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40">
-        <v>1.55</v>
-      </c>
       <c r="X40">
+        <v>1.35</v>
+      </c>
+      <c r="Y40">
         <v>1.3</v>
       </c>
-      <c r="Y40">
-        <v>1.4</v>
-      </c>
       <c r="Z40">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AA40">
-        <v>0.47</v>
+        <v>0.93</v>
       </c>
       <c r="AB40">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AC40">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AD40">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="AE40">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AK40">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AL40">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AM40">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="AN40">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:43">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2">
         <v>45396</v>
@@ -6448,7 +6448,7 @@
         <v>83</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
         <v>139</v>
@@ -6457,115 +6457,115 @@
         <v>225</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>1.53</v>
       </c>
       <c r="H41">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>1.09</v>
+      </c>
+      <c r="K41">
+        <v>8.5</v>
+      </c>
+      <c r="L41">
+        <v>17</v>
+      </c>
+      <c r="M41">
+        <v>1.25</v>
+      </c>
+      <c r="N41">
+        <v>3.75</v>
+      </c>
+      <c r="O41">
+        <v>1.02</v>
+      </c>
+      <c r="P41">
+        <v>13</v>
+      </c>
+      <c r="Q41">
+        <v>1.1</v>
+      </c>
+      <c r="R41">
+        <v>5.7</v>
+      </c>
+      <c r="S41">
+        <v>1.42</v>
+      </c>
+      <c r="T41">
+        <v>2.36</v>
+      </c>
+      <c r="U41">
+        <v>2.25</v>
+      </c>
+      <c r="V41">
+        <v>1.57</v>
+      </c>
+      <c r="W41">
+        <v>1.01</v>
+      </c>
+      <c r="X41">
+        <v>1.07</v>
+      </c>
+      <c r="Y41">
+        <v>5</v>
+      </c>
+      <c r="Z41">
+        <v>2.2</v>
+      </c>
+      <c r="AA41">
+        <v>0.93</v>
+      </c>
+      <c r="AB41">
+        <v>1.85</v>
+      </c>
+      <c r="AC41">
+        <v>1.06</v>
+      </c>
+      <c r="AD41">
+        <v>2.91</v>
+      </c>
+      <c r="AE41">
+        <v>1.06</v>
+      </c>
+      <c r="AF41">
+        <v>13</v>
+      </c>
+      <c r="AG41">
+        <v>11.4</v>
+      </c>
+      <c r="AH41">
+        <v>1.39</v>
+      </c>
+      <c r="AI41">
+        <v>2.76</v>
+      </c>
+      <c r="AJ41">
+        <v>1.74</v>
+      </c>
+      <c r="AK41">
+        <v>2.06</v>
+      </c>
+      <c r="AL41">
+        <v>2.22</v>
+      </c>
+      <c r="AM41">
+        <v>1.63</v>
+      </c>
+      <c r="AN41">
         <v>2.88</v>
       </c>
-      <c r="J41">
-        <v>3.5</v>
-      </c>
-      <c r="K41">
-        <v>3.4</v>
-      </c>
-      <c r="L41">
-        <v>2.1</v>
-      </c>
-      <c r="M41">
-        <v>1.44</v>
-      </c>
-      <c r="N41">
-        <v>2.63</v>
-      </c>
-      <c r="O41">
-        <v>1.06</v>
-      </c>
-      <c r="P41">
-        <v>8.5</v>
-      </c>
-      <c r="Q41">
-        <v>1.35</v>
-      </c>
-      <c r="R41">
-        <v>3.1</v>
-      </c>
-      <c r="S41">
-        <v>2.1</v>
-      </c>
-      <c r="T41">
-        <v>1.7</v>
-      </c>
-      <c r="U41">
-        <v>1.91</v>
-      </c>
-      <c r="V41">
-        <v>1.91</v>
-      </c>
-      <c r="W41">
-        <v>1.72</v>
-      </c>
-      <c r="X41">
-        <v>1.32</v>
-      </c>
-      <c r="Y41">
-        <v>1.31</v>
-      </c>
-      <c r="Z41">
-        <v>1.5</v>
-      </c>
-      <c r="AA41">
-        <v>2.25</v>
-      </c>
-      <c r="AB41">
-        <v>1.47</v>
-      </c>
-      <c r="AC41">
-        <v>1.29</v>
-      </c>
-      <c r="AD41">
-        <v>2.76</v>
-      </c>
-      <c r="AE41">
-        <v>2.1</v>
-      </c>
-      <c r="AF41">
-        <v>7.5</v>
-      </c>
-      <c r="AG41">
-        <v>1.95</v>
-      </c>
-      <c r="AH41">
-        <v>1.5</v>
-      </c>
-      <c r="AI41">
-        <v>2.4</v>
-      </c>
-      <c r="AJ41">
-        <v>1.85</v>
-      </c>
-      <c r="AK41">
-        <v>1.85</v>
-      </c>
-      <c r="AL41">
-        <v>2.4</v>
-      </c>
-      <c r="AM41">
-        <v>1.5</v>
-      </c>
-      <c r="AN41">
-        <v>3.2</v>
-      </c>
       <c r="AO41">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AP41">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="AQ41">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -6597,13 +6597,13 @@
         <v>5</v>
       </c>
       <c r="J42">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="K42">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L42">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M42">
         <v>1.4</v>
@@ -6624,10 +6624,10 @@
         <v>3.45</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T42">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="U42">
         <v>1.91</v>
@@ -6728,13 +6728,13 @@
         <v>3.25</v>
       </c>
       <c r="J43">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K43">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="L43">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M43">
         <v>1.5</v>
@@ -6755,10 +6755,10 @@
         <v>2.7</v>
       </c>
       <c r="S43">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="T43">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U43">
         <v>1.85</v>
@@ -6859,13 +6859,13 @@
         <v>4.2</v>
       </c>
       <c r="J44">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="K44">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
         <v>1.6</v>
@@ -6886,10 +6886,10 @@
         <v>2.43</v>
       </c>
       <c r="S44">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="T44">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="U44">
         <v>2.1</v>
@@ -6990,13 +6990,13 @@
         <v>3.2</v>
       </c>
       <c r="J45">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="K45">
         <v>3.05</v>
       </c>
       <c r="L45">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="M45">
         <v>1.5</v>
@@ -7017,10 +7017,10 @@
         <v>2.9</v>
       </c>
       <c r="S45">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T45">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="U45">
         <v>1.95</v>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="46" spans="1:43">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2">
         <v>45396</v>
@@ -7103,7 +7103,7 @@
         <v>85</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
         <v>144</v>
@@ -7112,115 +7112,115 @@
         <v>230</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Z46">
-        <v>1.29</v>
+        <v>2.53</v>
       </c>
       <c r="AA46">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="AB46">
-        <v>1.29</v>
+        <v>2.01</v>
       </c>
       <c r="AC46">
-        <v>0.84</v>
+        <v>1.52</v>
       </c>
       <c r="AD46">
-        <v>2.13</v>
+        <v>3.53</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AJ46">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AM46">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="47" spans="1:43">
@@ -7243,120 +7243,120 @@
         <v>231</v>
       </c>
       <c r="G47">
+        <v>3.5</v>
+      </c>
+      <c r="H47">
         <v>2.25</v>
       </c>
-      <c r="H47">
-        <v>2.38</v>
-      </c>
       <c r="I47">
-        <v>3.95</v>
+        <v>2.7</v>
       </c>
       <c r="J47">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="K47">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>2.08</v>
       </c>
       <c r="M47">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="N47">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O47">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q47">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="R47">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="S47">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="T47">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="U47">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="V47">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W47">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="X47">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Y47">
-        <v>1.95</v>
+        <v>1.33</v>
       </c>
       <c r="Z47">
-        <v>2.53</v>
+        <v>0.75</v>
       </c>
       <c r="AA47">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>2.01</v>
+        <v>1.21</v>
       </c>
       <c r="AC47">
         <v>1.52</v>
       </c>
       <c r="AD47">
-        <v>3.53</v>
+        <v>2.73</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ47">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK47">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AN47">
-        <v>1.72</v>
+        <v>2.15</v>
       </c>
       <c r="AO47">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="AP47">
-        <v>2.14</v>
+        <v>2.93</v>
       </c>
       <c r="AQ47">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="48" spans="1:43">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2">
         <v>45396</v>
@@ -7365,7 +7365,7 @@
         <v>85</v>
       </c>
       <c r="D48">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
         <v>146</v>
@@ -7374,115 +7374,115 @@
         <v>232</v>
       </c>
       <c r="G48">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="H48">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I48">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="K48">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="L48">
-        <v>2.05</v>
+        <v>4.7</v>
       </c>
       <c r="M48">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O48">
         <v>1.02</v>
       </c>
       <c r="P48">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q48">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="R48">
-        <v>3.8</v>
+        <v>3.14</v>
       </c>
       <c r="S48">
-        <v>1.65</v>
+        <v>2.01</v>
       </c>
       <c r="T48">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="U48">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="V48">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="W48">
-        <v>1.73</v>
+        <v>1.1</v>
       </c>
       <c r="X48">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="Y48">
-        <v>1.33</v>
+        <v>2.35</v>
       </c>
       <c r="Z48">
-        <v>0.75</v>
+        <v>1.29</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB48">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AC48">
-        <v>1.52</v>
+        <v>0.84</v>
       </c>
       <c r="AD48">
-        <v>2.73</v>
+        <v>2.13</v>
       </c>
       <c r="AE48">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="AF48">
-        <v>8</v>
+        <v>8.65</v>
       </c>
       <c r="AG48">
-        <v>2.2</v>
+        <v>3.67</v>
       </c>
       <c r="AH48">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="AI48">
-        <v>3.74</v>
+        <v>2.4</v>
       </c>
       <c r="AJ48">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="AK48">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="AL48">
-        <v>1.88</v>
+        <v>2.45</v>
       </c>
       <c r="AM48">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="AN48">
-        <v>2.15</v>
+        <v>3.42</v>
       </c>
       <c r="AO48">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="AP48">
-        <v>2.93</v>
+        <v>4.48</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="49" spans="1:43">
@@ -7505,61 +7505,61 @@
         <v>233</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Z49">
         <v>2</v>
@@ -7577,43 +7577,43 @@
         <v>3.3</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AJ49">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AK49">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AL49">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AM49">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AP49">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="50" spans="1:43">
@@ -7645,13 +7645,13 @@
         <v>5.14</v>
       </c>
       <c r="J50">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M50">
         <v>1.29</v>
@@ -7675,7 +7675,7 @@
         <v>1.61</v>
       </c>
       <c r="T50">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U50">
         <v>1.67</v>
@@ -7776,13 +7776,13 @@
         <v>4.33</v>
       </c>
       <c r="J51">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="K51">
-        <v>3.05</v>
+        <v>3.14</v>
       </c>
       <c r="L51">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="M51">
         <v>1.51</v>
@@ -8003,10 +8003,10 @@
         <v>1.36</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="53" spans="1:43">
@@ -8038,13 +8038,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K53">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="L53">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T53">
         <v>1.6</v>
@@ -8300,13 +8300,13 @@
         <v>3</v>
       </c>
       <c r="J55">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="K55">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L55">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="M55">
         <v>1.29</v>
@@ -8327,10 +8327,10 @@
         <v>4.65</v>
       </c>
       <c r="S55">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="U55">
         <v>1.5</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2">
         <v>45396</v>
@@ -8413,7 +8413,7 @@
         <v>87</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
         <v>154</v>
@@ -8422,120 +8422,120 @@
         <v>240</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z56">
-        <v>2.71</v>
+        <v>1.25</v>
       </c>
       <c r="AA56">
-        <v>0.64</v>
+        <v>1.58</v>
       </c>
       <c r="AB56">
-        <v>2.46</v>
+        <v>1.68</v>
       </c>
       <c r="AC56">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AD56">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AJ56">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AK56">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL56">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AM56">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AP56">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AQ56">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="57" spans="1:43">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2">
         <v>45396</v>
@@ -8544,7 +8544,7 @@
         <v>87</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
         <v>155</v>
@@ -8553,115 +8553,115 @@
         <v>241</v>
       </c>
       <c r="G57">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H57">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="I57">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J57">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="K57">
+        <v>8.34</v>
+      </c>
+      <c r="L57">
+        <v>13.92</v>
+      </c>
+      <c r="M57">
+        <v>1.2</v>
+      </c>
+      <c r="N57">
+        <v>4.33</v>
+      </c>
+      <c r="O57">
+        <v>1.01</v>
+      </c>
+      <c r="P57">
+        <v>16.5</v>
+      </c>
+      <c r="Q57">
+        <v>1.09</v>
+      </c>
+      <c r="R57">
+        <v>6.5</v>
+      </c>
+      <c r="S57">
+        <v>1.3</v>
+      </c>
+      <c r="T57">
+        <v>3.15</v>
+      </c>
+      <c r="U57">
+        <v>2.25</v>
+      </c>
+      <c r="V57">
+        <v>1.57</v>
+      </c>
+      <c r="W57">
+        <v>1.01</v>
+      </c>
+      <c r="X57">
+        <v>1.02</v>
+      </c>
+      <c r="Y57">
+        <v>6.6</v>
+      </c>
+      <c r="Z57">
+        <v>2.71</v>
+      </c>
+      <c r="AA57">
+        <v>0.64</v>
+      </c>
+      <c r="AB57">
+        <v>2.46</v>
+      </c>
+      <c r="AC57">
+        <v>1.29</v>
+      </c>
+      <c r="AD57">
         <v>3.75</v>
       </c>
-      <c r="L57">
-        <v>5</v>
-      </c>
-      <c r="M57">
-        <v>1.36</v>
-      </c>
-      <c r="N57">
-        <v>3</v>
-      </c>
-      <c r="O57">
-        <v>1.03</v>
-      </c>
-      <c r="P57">
-        <v>13</v>
-      </c>
-      <c r="Q57">
-        <v>1.25</v>
-      </c>
-      <c r="R57">
-        <v>3.75</v>
-      </c>
-      <c r="S57">
-        <v>1.75</v>
-      </c>
-      <c r="T57">
+      <c r="AE57">
+        <v>1.12</v>
+      </c>
+      <c r="AF57">
+        <v>13.3</v>
+      </c>
+      <c r="AG57">
+        <v>7.7</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>1.2</v>
+      </c>
+      <c r="AK57">
+        <v>4</v>
+      </c>
+      <c r="AL57">
+        <v>1.34</v>
+      </c>
+      <c r="AM57">
+        <v>2.88</v>
+      </c>
+      <c r="AN57">
+        <v>1.59</v>
+      </c>
+      <c r="AO57">
+        <v>2.16</v>
+      </c>
+      <c r="AP57">
         <v>1.95</v>
       </c>
-      <c r="U57">
-        <v>1.91</v>
-      </c>
-      <c r="V57">
-        <v>1.91</v>
-      </c>
-      <c r="W57">
-        <v>1.12</v>
-      </c>
-      <c r="X57">
-        <v>1.18</v>
-      </c>
-      <c r="Y57">
-        <v>2.5</v>
-      </c>
-      <c r="Z57">
-        <v>1.25</v>
-      </c>
-      <c r="AA57">
-        <v>1.58</v>
-      </c>
-      <c r="AB57">
-        <v>1.68</v>
-      </c>
-      <c r="AC57">
-        <v>1.12</v>
-      </c>
-      <c r="AD57">
-        <v>2.8</v>
-      </c>
-      <c r="AE57">
-        <v>1.37</v>
-      </c>
-      <c r="AF57">
-        <v>9</v>
-      </c>
-      <c r="AG57">
-        <v>3.83</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-      <c r="AJ57">
-        <v>1.52</v>
-      </c>
-      <c r="AK57">
-        <v>2.48</v>
-      </c>
-      <c r="AL57">
-        <v>1.92</v>
-      </c>
-      <c r="AM57">
-        <v>1.8</v>
-      </c>
-      <c r="AN57">
-        <v>2.38</v>
-      </c>
-      <c r="AO57">
-        <v>1.56</v>
-      </c>
-      <c r="AP57">
-        <v>0</v>
-      </c>
       <c r="AQ57">
-        <v>0</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -8693,13 +8693,13 @@
         <v>4</v>
       </c>
       <c r="J58">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L58">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="M58">
         <v>1.46</v>
@@ -8723,7 +8723,7 @@
         <v>2.2</v>
       </c>
       <c r="T58">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U58">
         <v>1.94</v>
@@ -8824,13 +8824,13 @@
         <v>3.5</v>
       </c>
       <c r="J59">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="K59">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="L59">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="M59">
         <v>1.45</v>
@@ -8851,10 +8851,10 @@
         <v>3.1</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U59">
         <v>1.8</v>
@@ -8982,7 +8982,7 @@
         <v>2.48</v>
       </c>
       <c r="S60">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>1.79</v>
@@ -9086,13 +9086,13 @@
         <v>9.5</v>
       </c>
       <c r="J61">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="K61">
         <v>7.5</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M61">
         <v>1.22</v>
@@ -9113,10 +9113,10 @@
         <v>6</v>
       </c>
       <c r="S61">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="U61">
         <v>2</v>
@@ -9217,10 +9217,10 @@
         <v>7.5</v>
       </c>
       <c r="J62">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="K62">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="L62">
         <v>9.5</v>
@@ -9244,10 +9244,10 @@
         <v>5.9</v>
       </c>
       <c r="S62">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="T62">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="U62">
         <v>1.8</v>
@@ -9348,10 +9348,10 @@
         <v>2.66</v>
       </c>
       <c r="J63">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="K63">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L63">
         <v>2.15</v>
@@ -9375,10 +9375,10 @@
         <v>3.34</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U63">
         <v>1.71</v>
@@ -9420,10 +9420,10 @@
         <v>2.39</v>
       </c>
       <c r="AH63">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI63">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ63">
         <v>1.4</v>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="64" spans="1:43">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B64" s="2">
         <v>45396</v>
@@ -9461,7 +9461,7 @@
         <v>90</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
         <v>162</v>
@@ -9470,120 +9470,120 @@
         <v>248</v>
       </c>
       <c r="G64">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I64">
+        <v>2.75</v>
+      </c>
+      <c r="J64">
+        <v>3.5</v>
+      </c>
+      <c r="K64">
+        <v>3.45</v>
+      </c>
+      <c r="L64">
+        <v>2.1</v>
+      </c>
+      <c r="M64">
+        <v>1.44</v>
+      </c>
+      <c r="N64">
+        <v>2.63</v>
+      </c>
+      <c r="O64">
+        <v>1.06</v>
+      </c>
+      <c r="P64">
+        <v>10</v>
+      </c>
+      <c r="Q64">
+        <v>1.33</v>
+      </c>
+      <c r="R64">
+        <v>3.3</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>1.81</v>
+      </c>
+      <c r="U64">
+        <v>1.8</v>
+      </c>
+      <c r="V64">
+        <v>1.95</v>
+      </c>
+      <c r="W64">
+        <v>1.75</v>
+      </c>
+      <c r="X64">
+        <v>1.28</v>
+      </c>
+      <c r="Y64">
+        <v>1.32</v>
+      </c>
+      <c r="Z64">
+        <v>0.75</v>
+      </c>
+      <c r="AA64">
+        <v>1.27</v>
+      </c>
+      <c r="AB64">
+        <v>1.35</v>
+      </c>
+      <c r="AC64">
+        <v>1.23</v>
+      </c>
+      <c r="AD64">
+        <v>2.58</v>
+      </c>
+      <c r="AE64">
+        <v>2.33</v>
+      </c>
+      <c r="AF64">
+        <v>8.9</v>
+      </c>
+      <c r="AG64">
+        <v>1.83</v>
+      </c>
+      <c r="AH64">
+        <v>1.28</v>
+      </c>
+      <c r="AI64">
         <v>3.2</v>
       </c>
-      <c r="J64">
-        <v>2.65</v>
-      </c>
-      <c r="K64">
-        <v>3.4</v>
-      </c>
-      <c r="L64">
-        <v>2.45</v>
-      </c>
-      <c r="M64">
-        <v>1.36</v>
-      </c>
-      <c r="N64">
-        <v>3</v>
-      </c>
-      <c r="O64">
-        <v>1.01</v>
-      </c>
-      <c r="P64">
-        <v>9.9</v>
-      </c>
-      <c r="Q64">
-        <v>1.23</v>
-      </c>
-      <c r="R64">
-        <v>3.58</v>
-      </c>
-      <c r="S64">
+      <c r="AJ64">
+        <v>1.55</v>
+      </c>
+      <c r="AK64">
+        <v>2.3</v>
+      </c>
+      <c r="AL64">
+        <v>1.9</v>
+      </c>
+      <c r="AM64">
         <v>1.8</v>
       </c>
-      <c r="T64">
-        <v>1.9</v>
-      </c>
-      <c r="U64">
-        <v>1.67</v>
-      </c>
-      <c r="V64">
-        <v>2.1</v>
-      </c>
-      <c r="W64">
-        <v>1.52</v>
-      </c>
-      <c r="X64">
-        <v>1.3</v>
-      </c>
-      <c r="Y64">
-        <v>1.49</v>
-      </c>
-      <c r="Z64">
-        <v>2.17</v>
-      </c>
-      <c r="AA64">
-        <v>1.92</v>
-      </c>
-      <c r="AB64">
-        <v>1.65</v>
-      </c>
-      <c r="AC64">
-        <v>1.64</v>
-      </c>
-      <c r="AD64">
-        <v>3.29</v>
-      </c>
-      <c r="AE64">
-        <v>1.82</v>
-      </c>
-      <c r="AF64">
-        <v>7.5</v>
-      </c>
-      <c r="AG64">
+      <c r="AN64">
         <v>2.4</v>
       </c>
-      <c r="AH64">
-        <v>1.39</v>
-      </c>
-      <c r="AI64">
-        <v>2.76</v>
-      </c>
-      <c r="AJ64">
-        <v>1.68</v>
-      </c>
-      <c r="AK64">
-        <v>2.06</v>
-      </c>
-      <c r="AL64">
-        <v>2.2</v>
-      </c>
-      <c r="AM64">
-        <v>1.6</v>
-      </c>
-      <c r="AN64">
-        <v>2.95</v>
-      </c>
       <c r="AO64">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="AQ64">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="65" spans="1:43">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B65" s="2">
         <v>45396</v>
@@ -9601,97 +9601,97 @@
         <v>249</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="H65">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="I65">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="J65">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="K65">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="L65">
-        <v>2.1</v>
+        <v>1.37</v>
       </c>
       <c r="M65">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="N65">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="O65">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P65">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q65">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="R65">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="T65">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V65">
+        <v>1.97</v>
+      </c>
+      <c r="W65">
+        <v>2.85</v>
+      </c>
+      <c r="X65">
+        <v>1.2</v>
+      </c>
+      <c r="Y65">
+        <v>1.04</v>
+      </c>
+      <c r="Z65">
+        <v>1.6</v>
+      </c>
+      <c r="AA65">
+        <v>2.87</v>
+      </c>
+      <c r="AB65">
+        <v>1.29</v>
+      </c>
+      <c r="AC65">
+        <v>1.94</v>
+      </c>
+      <c r="AD65">
+        <v>3.23</v>
+      </c>
+      <c r="AE65">
+        <v>5.5</v>
+      </c>
+      <c r="AF65">
+        <v>8.5</v>
+      </c>
+      <c r="AG65">
+        <v>1.25</v>
+      </c>
+      <c r="AH65">
+        <v>1.5</v>
+      </c>
+      <c r="AI65">
+        <v>2.4</v>
+      </c>
+      <c r="AJ65">
+        <v>1.85</v>
+      </c>
+      <c r="AK65">
         <v>1.95</v>
-      </c>
-      <c r="W65">
-        <v>1.75</v>
-      </c>
-      <c r="X65">
-        <v>1.28</v>
-      </c>
-      <c r="Y65">
-        <v>1.32</v>
-      </c>
-      <c r="Z65">
-        <v>0.75</v>
-      </c>
-      <c r="AA65">
-        <v>1.27</v>
-      </c>
-      <c r="AB65">
-        <v>1.35</v>
-      </c>
-      <c r="AC65">
-        <v>1.23</v>
-      </c>
-      <c r="AD65">
-        <v>2.58</v>
-      </c>
-      <c r="AE65">
-        <v>2.33</v>
-      </c>
-      <c r="AF65">
-        <v>8.9</v>
-      </c>
-      <c r="AG65">
-        <v>1.83</v>
-      </c>
-      <c r="AH65">
-        <v>1.28</v>
-      </c>
-      <c r="AI65">
-        <v>3.2</v>
-      </c>
-      <c r="AJ65">
-        <v>1.55</v>
-      </c>
-      <c r="AK65">
-        <v>2.3</v>
       </c>
       <c r="AL65">
         <v>1.9</v>
@@ -9700,21 +9700,21 @@
         <v>1.8</v>
       </c>
       <c r="AN65">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="AO65">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AP65">
-        <v>3.34</v>
+        <v>3.6</v>
       </c>
       <c r="AQ65">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="66" spans="1:43">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B66" s="2">
         <v>45396</v>
@@ -9723,7 +9723,7 @@
         <v>90</v>
       </c>
       <c r="D66">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
         <v>164</v>
@@ -9732,120 +9732,120 @@
         <v>250</v>
       </c>
       <c r="G66">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="H66">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I66">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="J66">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L66">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="M66">
         <v>1.36</v>
       </c>
       <c r="N66">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P66">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="Q66">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="R66">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="S66">
         <v>1.85</v>
       </c>
       <c r="T66">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V66">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W66">
-        <v>2.05</v>
+        <v>1.52</v>
       </c>
       <c r="X66">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Y66">
-        <v>1.11</v>
+        <v>1.49</v>
       </c>
       <c r="Z66">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AA66">
-        <v>2.38</v>
+        <v>1.92</v>
       </c>
       <c r="AB66">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="AC66">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="AD66">
-        <v>3.71</v>
+        <v>3.29</v>
       </c>
       <c r="AE66">
-        <v>2.82</v>
+        <v>1.82</v>
       </c>
       <c r="AF66">
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="AG66">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI66">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AJ66">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="AK66">
-        <v>3.08</v>
+        <v>2.06</v>
       </c>
       <c r="AL66">
-        <v>1.59</v>
+        <v>2.2</v>
       </c>
       <c r="AM66">
-        <v>2.29</v>
+        <v>1.6</v>
       </c>
       <c r="AN66">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="AO66">
-        <v>1.85</v>
+        <v>1.35</v>
       </c>
       <c r="AP66">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="AQ66">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="67" spans="1:43">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B67" s="2">
         <v>45396</v>
@@ -9854,7 +9854,7 @@
         <v>90</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
         <v>165</v>
@@ -9863,115 +9863,115 @@
         <v>251</v>
       </c>
       <c r="G67">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="H67">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I67">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="J67">
-        <v>7</v>
+        <v>4.35</v>
       </c>
       <c r="K67">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L67">
+        <v>1.72</v>
+      </c>
+      <c r="M67">
         <v>1.36</v>
       </c>
-      <c r="M67">
-        <v>1.3</v>
-      </c>
       <c r="N67">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O67">
         <v>1.03</v>
       </c>
       <c r="P67">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Q67">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="R67">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="S67">
+        <v>1.85</v>
+      </c>
+      <c r="T67">
+        <v>1.9</v>
+      </c>
+      <c r="U67">
+        <v>1.8</v>
+      </c>
+      <c r="V67">
+        <v>1.91</v>
+      </c>
+      <c r="W67">
+        <v>2.05</v>
+      </c>
+      <c r="X67">
+        <v>1.27</v>
+      </c>
+      <c r="Y67">
+        <v>1.11</v>
+      </c>
+      <c r="Z67">
+        <v>2</v>
+      </c>
+      <c r="AA67">
+        <v>2.38</v>
+      </c>
+      <c r="AB67">
+        <v>1.93</v>
+      </c>
+      <c r="AC67">
+        <v>1.78</v>
+      </c>
+      <c r="AD67">
+        <v>3.71</v>
+      </c>
+      <c r="AE67">
+        <v>2.82</v>
+      </c>
+      <c r="AF67">
+        <v>9.4</v>
+      </c>
+      <c r="AG67">
         <v>1.55</v>
       </c>
-      <c r="T67">
-        <v>2.3</v>
-      </c>
-      <c r="U67">
-        <v>1.81</v>
-      </c>
-      <c r="V67">
-        <v>1.97</v>
-      </c>
-      <c r="W67">
-        <v>2.85</v>
-      </c>
-      <c r="X67">
-        <v>1.2</v>
-      </c>
-      <c r="Y67">
-        <v>1.04</v>
-      </c>
-      <c r="Z67">
-        <v>1.6</v>
-      </c>
-      <c r="AA67">
-        <v>2.87</v>
-      </c>
-      <c r="AB67">
-        <v>1.29</v>
-      </c>
-      <c r="AC67">
-        <v>1.94</v>
-      </c>
-      <c r="AD67">
-        <v>3.23</v>
-      </c>
-      <c r="AE67">
-        <v>5.5</v>
-      </c>
-      <c r="AF67">
-        <v>8.5</v>
-      </c>
-      <c r="AG67">
-        <v>1.25</v>
-      </c>
       <c r="AH67">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AI67">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AJ67">
+        <v>1.3</v>
+      </c>
+      <c r="AK67">
+        <v>3.08</v>
+      </c>
+      <c r="AL67">
+        <v>1.59</v>
+      </c>
+      <c r="AM67">
+        <v>2.29</v>
+      </c>
+      <c r="AN67">
+        <v>1.95</v>
+      </c>
+      <c r="AO67">
         <v>1.85</v>
       </c>
-      <c r="AK67">
-        <v>1.95</v>
-      </c>
-      <c r="AL67">
-        <v>1.9</v>
-      </c>
-      <c r="AM67">
-        <v>1.8</v>
-      </c>
-      <c r="AN67">
-        <v>2.57</v>
-      </c>
-      <c r="AO67">
-        <v>1.49</v>
-      </c>
       <c r="AP67">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AQ67">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="68" spans="1:43">
@@ -10003,7 +10003,7 @@
         <v>3.1</v>
       </c>
       <c r="J68">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="K68">
         <v>3.3</v>
@@ -10030,10 +10030,10 @@
         <v>3.8</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="T68">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="U68">
         <v>1.67</v>
@@ -10107,7 +10107,7 @@
     </row>
     <row r="69" spans="1:43">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" s="2">
         <v>45396</v>
@@ -10116,7 +10116,7 @@
         <v>91</v>
       </c>
       <c r="D69">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
         <v>167</v>
@@ -10125,115 +10125,115 @@
         <v>253</v>
       </c>
       <c r="G69">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H69">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="I69">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="J69">
-        <v>2.85</v>
+        <v>1.6</v>
       </c>
       <c r="K69">
-        <v>2.65</v>
+        <v>4.1</v>
       </c>
       <c r="L69">
-        <v>2.55</v>
+        <v>5.1</v>
       </c>
       <c r="M69">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="N69">
+        <v>3.25</v>
+      </c>
+      <c r="O69">
+        <v>1.01</v>
+      </c>
+      <c r="P69">
+        <v>15</v>
+      </c>
+      <c r="Q69">
+        <v>1.18</v>
+      </c>
+      <c r="R69">
+        <v>4.75</v>
+      </c>
+      <c r="S69">
+        <v>1.65</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
+        <v>1.7</v>
+      </c>
+      <c r="V69">
+        <v>2.05</v>
+      </c>
+      <c r="W69">
+        <v>1.2</v>
+      </c>
+      <c r="X69">
+        <v>1.2</v>
+      </c>
+      <c r="Y69">
         <v>2.15</v>
       </c>
-      <c r="O69">
-        <v>1.12</v>
-      </c>
-      <c r="P69">
-        <v>5.75</v>
-      </c>
-      <c r="Q69">
-        <v>1.55</v>
-      </c>
-      <c r="R69">
-        <v>2.3</v>
-      </c>
-      <c r="S69">
+      <c r="Z69">
+        <v>2.4</v>
+      </c>
+      <c r="AA69">
+        <v>1.36</v>
+      </c>
+      <c r="AB69">
+        <v>1.66</v>
+      </c>
+      <c r="AC69">
+        <v>1.09</v>
+      </c>
+      <c r="AD69">
         <v>2.75</v>
       </c>
-      <c r="T69">
-        <v>1.4</v>
-      </c>
-      <c r="U69">
-        <v>2.1</v>
-      </c>
-      <c r="V69">
-        <v>1.62</v>
-      </c>
-      <c r="W69">
-        <v>1.45</v>
-      </c>
-      <c r="X69">
-        <v>1.35</v>
-      </c>
-      <c r="Y69">
-        <v>1.38</v>
-      </c>
-      <c r="Z69">
-        <v>1.41</v>
-      </c>
-      <c r="AA69">
-        <v>1.24</v>
-      </c>
-      <c r="AB69">
-        <v>1.44</v>
-      </c>
-      <c r="AC69">
-        <v>1.38</v>
-      </c>
-      <c r="AD69">
-        <v>2.82</v>
-      </c>
       <c r="AE69">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AF69">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG69">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="AH69">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AI69">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AJ69">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AK69">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="AL69">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AM69">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AN69">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="AO69">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AP69">
-        <v>3.42</v>
+        <v>2.8</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="70" spans="1:43">
@@ -10265,13 +10265,13 @@
         <v>3.75</v>
       </c>
       <c r="J70">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K70">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L70">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="M70">
         <v>1.44</v>
@@ -10292,10 +10292,10 @@
         <v>3.1</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T70">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U70">
         <v>1.83</v>
@@ -10369,7 +10369,7 @@
     </row>
     <row r="71" spans="1:43">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71" s="2">
         <v>45396</v>
@@ -10378,7 +10378,7 @@
         <v>91</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
         <v>169</v>
@@ -10387,120 +10387,120 @@
         <v>255</v>
       </c>
       <c r="G71">
+        <v>3.7</v>
+      </c>
+      <c r="H71">
+        <v>1.8</v>
+      </c>
+      <c r="I71">
+        <v>3.4</v>
+      </c>
+      <c r="J71">
+        <v>2.95</v>
+      </c>
+      <c r="K71">
+        <v>2.75</v>
+      </c>
+      <c r="L71">
+        <v>2.6</v>
+      </c>
+      <c r="M71">
+        <v>1.62</v>
+      </c>
+      <c r="N71">
+        <v>2.15</v>
+      </c>
+      <c r="O71">
+        <v>1.12</v>
+      </c>
+      <c r="P71">
+        <v>5.75</v>
+      </c>
+      <c r="Q71">
+        <v>1.55</v>
+      </c>
+      <c r="R71">
         <v>2.3</v>
       </c>
-      <c r="H71">
-        <v>2.38</v>
-      </c>
-      <c r="I71">
-        <v>4.75</v>
-      </c>
-      <c r="J71">
-        <v>1.65</v>
-      </c>
-      <c r="K71">
-        <v>4.1</v>
-      </c>
-      <c r="L71">
-        <v>4.75</v>
-      </c>
-      <c r="M71">
-        <v>1.33</v>
-      </c>
-      <c r="N71">
-        <v>3.25</v>
-      </c>
-      <c r="O71">
-        <v>1.01</v>
-      </c>
-      <c r="P71">
-        <v>15</v>
-      </c>
-      <c r="Q71">
-        <v>1.18</v>
-      </c>
-      <c r="R71">
-        <v>4.75</v>
-      </c>
       <c r="S71">
-        <v>1.65</v>
+        <v>2.68</v>
       </c>
       <c r="T71">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="U71">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="V71">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="W71">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="X71">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="Y71">
-        <v>2.15</v>
+        <v>1.38</v>
       </c>
       <c r="Z71">
-        <v>2.4</v>
+        <v>1.41</v>
       </c>
       <c r="AA71">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AB71">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AC71">
-        <v>1.09</v>
+        <v>1.38</v>
       </c>
       <c r="AD71">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AE71">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AF71">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG71">
+        <v>2.1</v>
+      </c>
+      <c r="AH71">
+        <v>1.28</v>
+      </c>
+      <c r="AI71">
         <v>3.2</v>
       </c>
-      <c r="AH71">
-        <v>1.23</v>
-      </c>
-      <c r="AI71">
-        <v>3.45</v>
-      </c>
       <c r="AJ71">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AK71">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AL71">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AM71">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AN71">
-        <v>2.18</v>
+        <v>2.48</v>
       </c>
       <c r="AO71">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AP71">
-        <v>2.8</v>
+        <v>3.42</v>
       </c>
       <c r="AQ71">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="72" spans="1:43">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="2">
         <v>45396</v>
@@ -10527,13 +10527,13 @@
         <v>2.88</v>
       </c>
       <c r="J72">
-        <v>4.08</v>
+        <v>3.4</v>
       </c>
       <c r="K72">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="L72">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="M72">
         <v>1.46</v>
@@ -10554,10 +10554,10 @@
         <v>2.84</v>
       </c>
       <c r="S72">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T72">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U72">
         <v>1.94</v>
@@ -10658,13 +10658,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>2.6</v>
+        <v>1.68</v>
       </c>
       <c r="K73">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L73">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T73">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -10706,19 +10706,19 @@
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>0.93</v>
+        <v>1.43</v>
       </c>
       <c r="AA73">
-        <v>1.43</v>
+        <v>0.86</v>
       </c>
       <c r="AB73">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="AC73">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="AD73">
-        <v>2.17</v>
+        <v>2.36</v>
       </c>
       <c r="AE73">
         <v>0</v>
@@ -10762,7 +10762,7 @@
     </row>
     <row r="74" spans="1:43">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B74" s="2">
         <v>45396</v>
@@ -10771,7 +10771,7 @@
         <v>92</v>
       </c>
       <c r="D74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
         <v>172</v>
@@ -10780,120 +10780,120 @@
         <v>258</v>
       </c>
       <c r="G74">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2.65</v>
+      </c>
+      <c r="K74">
+        <v>3.3</v>
+      </c>
+      <c r="L74">
+        <v>2.5</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>1.87</v>
+      </c>
+      <c r="T74">
+        <v>1.87</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0.93</v>
+      </c>
+      <c r="AA74">
+        <v>1.43</v>
+      </c>
+      <c r="AB74">
+        <v>1.15</v>
+      </c>
+      <c r="AC74">
+        <v>1.02</v>
+      </c>
+      <c r="AD74">
         <v>2.17</v>
       </c>
-      <c r="J74">
-        <v>5.45</v>
-      </c>
-      <c r="K74">
-        <v>3.74</v>
-      </c>
-      <c r="L74">
-        <v>1.62</v>
-      </c>
-      <c r="M74">
-        <v>1.44</v>
-      </c>
-      <c r="N74">
-        <v>2.67</v>
-      </c>
-      <c r="O74">
-        <v>1.03</v>
-      </c>
-      <c r="P74">
-        <v>8</v>
-      </c>
-      <c r="Q74">
-        <v>1.33</v>
-      </c>
-      <c r="R74">
-        <v>2.93</v>
-      </c>
-      <c r="S74">
-        <v>2.11</v>
-      </c>
-      <c r="T74">
-        <v>1.71</v>
-      </c>
-      <c r="U74">
-        <v>2.06</v>
-      </c>
-      <c r="V74">
-        <v>1.68</v>
-      </c>
-      <c r="W74">
-        <v>2.23</v>
-      </c>
-      <c r="X74">
-        <v>1.25</v>
-      </c>
-      <c r="Y74">
-        <v>1.13</v>
-      </c>
-      <c r="Z74">
-        <v>1.21</v>
-      </c>
-      <c r="AA74">
-        <v>1.93</v>
-      </c>
-      <c r="AB74">
-        <v>1.17</v>
-      </c>
-      <c r="AC74">
-        <v>1.49</v>
-      </c>
-      <c r="AD74">
-        <v>2.66</v>
-      </c>
       <c r="AE74">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AF74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG74">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AH74">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AI74">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AJ74">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AK74">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AL74">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AM74">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AN74">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="AO74">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP74">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:43">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="2">
         <v>45396</v>
@@ -10902,7 +10902,7 @@
         <v>92</v>
       </c>
       <c r="D75">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E75" t="s">
         <v>173</v>
@@ -10911,115 +10911,115 @@
         <v>259</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="J75">
+        <v>5.45</v>
+      </c>
+      <c r="K75">
+        <v>3.74</v>
+      </c>
+      <c r="L75">
         <v>1.62</v>
       </c>
-      <c r="K75">
-        <v>3.65</v>
-      </c>
-      <c r="L75">
-        <v>5</v>
-      </c>
       <c r="M75">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="T75">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="Z75">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AA75">
-        <v>0.86</v>
+        <v>1.93</v>
       </c>
       <c r="AB75">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="AC75">
-        <v>0.99</v>
+        <v>1.49</v>
       </c>
       <c r="AD75">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AF75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG75">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AH75">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI75">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AJ75">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AK75">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AL75">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AM75">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AN75">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AO75">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ75">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="76" spans="1:43">
@@ -11051,13 +11051,13 @@
         <v>2.4</v>
       </c>
       <c r="J76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L76">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M76">
         <v>1.29</v>
@@ -11078,10 +11078,10 @@
         <v>4.86</v>
       </c>
       <c r="S76">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="U76">
         <v>1.53</v>
@@ -11173,61 +11173,61 @@
         <v>261</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="R77">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Z77">
         <v>1.86</v>
@@ -11245,48 +11245,48 @@
         <v>3.5</v>
       </c>
       <c r="AE77">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AF77">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG77">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AH77">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI77">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AJ77">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AK77">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AL77">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AM77">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AN77">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AO77">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AP77">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ77">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="78" spans="1:43">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B78" s="2">
         <v>45396</v>
@@ -11313,13 +11313,13 @@
         <v>9.5</v>
       </c>
       <c r="J78">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="K78">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L78">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M78">
         <v>1.29</v>
@@ -11340,10 +11340,10 @@
         <v>4.35</v>
       </c>
       <c r="S78">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="T78">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="U78">
         <v>2.1</v>
@@ -11444,13 +11444,13 @@
         <v>5</v>
       </c>
       <c r="J79">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="K79">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="L79">
-        <v>5.25</v>
+        <v>6.1</v>
       </c>
       <c r="M79">
         <v>1.29</v>
@@ -11471,10 +11471,10 @@
         <v>4.87</v>
       </c>
       <c r="S79">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="T79">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="U79">
         <v>1.67</v>
@@ -11575,13 +11575,13 @@
         <v>3.5</v>
       </c>
       <c r="J80">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>3.32</v>
       </c>
       <c r="L80">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="M80">
         <v>1.46</v>
@@ -11602,10 +11602,10 @@
         <v>3</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T80">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="U80">
         <v>1.83</v>
@@ -11697,61 +11697,61 @@
         <v>265</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Z81">
         <v>1.14</v>
@@ -11837,13 +11837,13 @@
         <v>4</v>
       </c>
       <c r="J82">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="K82">
         <v>3.25</v>
       </c>
       <c r="L82">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M82">
         <v>1.44</v>
@@ -11864,7 +11864,7 @@
         <v>3.48</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T82">
         <v>1.8</v>
@@ -11968,13 +11968,13 @@
         <v>10</v>
       </c>
       <c r="J83">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="K83">
         <v>7.5</v>
       </c>
       <c r="L83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M83">
         <v>1.22</v>
@@ -11998,7 +11998,7 @@
         <v>1.36</v>
       </c>
       <c r="T83">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="U83">
         <v>2</v>
@@ -12072,7 +12072,7 @@
     </row>
     <row r="84" spans="1:43">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84" s="2">
         <v>45396</v>
@@ -12081,7 +12081,7 @@
         <v>98</v>
       </c>
       <c r="D84">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
         <v>182</v>
@@ -12090,120 +12090,120 @@
         <v>268</v>
       </c>
       <c r="G84">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="H84">
-        <v>1.77</v>
+        <v>2.5</v>
       </c>
       <c r="I84">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="J84">
-        <v>2.3</v>
+        <v>1.35</v>
       </c>
       <c r="K84">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="L84">
-        <v>3.35</v>
+        <v>8.5</v>
       </c>
       <c r="M84">
+        <v>1.33</v>
+      </c>
+      <c r="N84">
+        <v>3.25</v>
+      </c>
+      <c r="O84">
+        <v>1.02</v>
+      </c>
+      <c r="P84">
+        <v>13</v>
+      </c>
+      <c r="Q84">
+        <v>1.21</v>
+      </c>
+      <c r="R84">
+        <v>4.3</v>
+      </c>
+      <c r="S84">
+        <v>1.75</v>
+      </c>
+      <c r="T84">
+        <v>2.08</v>
+      </c>
+      <c r="U84">
+        <v>2.05</v>
+      </c>
+      <c r="V84">
         <v>1.7</v>
       </c>
-      <c r="N84">
-        <v>2.05</v>
-      </c>
-      <c r="O84">
-        <v>1.14</v>
-      </c>
-      <c r="P84">
-        <v>5.5</v>
-      </c>
-      <c r="Q84">
-        <v>1.67</v>
-      </c>
-      <c r="R84">
-        <v>2.07</v>
-      </c>
-      <c r="S84">
-        <v>3</v>
-      </c>
-      <c r="T84">
-        <v>1.33</v>
-      </c>
-      <c r="U84">
-        <v>2.35</v>
-      </c>
-      <c r="V84">
-        <v>1.5</v>
-      </c>
       <c r="W84">
+        <v>1.04</v>
+      </c>
+      <c r="X84">
+        <v>1.13</v>
+      </c>
+      <c r="Y84">
+        <v>3.3</v>
+      </c>
+      <c r="Z84">
+        <v>1.64</v>
+      </c>
+      <c r="AA84">
+        <v>0.33</v>
+      </c>
+      <c r="AB84">
+        <v>1.54</v>
+      </c>
+      <c r="AC84">
+        <v>1.05</v>
+      </c>
+      <c r="AD84">
+        <v>2.59</v>
+      </c>
+      <c r="AE84">
         <v>1.28</v>
       </c>
-      <c r="X84">
-        <v>1.35</v>
-      </c>
-      <c r="Y84">
-        <v>1.62</v>
-      </c>
-      <c r="Z84">
-        <v>1.88</v>
-      </c>
-      <c r="AA84">
-        <v>1.24</v>
-      </c>
-      <c r="AB84">
-        <v>1.39</v>
-      </c>
-      <c r="AC84">
-        <v>0.92</v>
-      </c>
-      <c r="AD84">
-        <v>2.31</v>
-      </c>
-      <c r="AE84">
-        <v>1.59</v>
-      </c>
       <c r="AF84">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG84">
-        <v>2.91</v>
+        <v>4.75</v>
       </c>
       <c r="AH84">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AI84">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="AJ84">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="AK84">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AL84">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="AM84">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="AN84">
-        <v>2.91</v>
+        <v>2.4</v>
       </c>
       <c r="AO84">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AP84">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="AQ84">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="85" spans="1:43">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" s="2">
         <v>45396</v>
@@ -12212,7 +12212,7 @@
         <v>98</v>
       </c>
       <c r="D85">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E85" t="s">
         <v>183</v>
@@ -12221,115 +12221,115 @@
         <v>269</v>
       </c>
       <c r="G85">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="H85">
-        <v>2.5</v>
+        <v>1.77</v>
       </c>
       <c r="I85">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="J85">
+        <v>2.28</v>
+      </c>
+      <c r="K85">
+        <v>2.85</v>
+      </c>
+      <c r="L85">
+        <v>3.35</v>
+      </c>
+      <c r="M85">
+        <v>1.7</v>
+      </c>
+      <c r="N85">
+        <v>2.05</v>
+      </c>
+      <c r="O85">
+        <v>1.14</v>
+      </c>
+      <c r="P85">
+        <v>5.5</v>
+      </c>
+      <c r="Q85">
+        <v>1.64</v>
+      </c>
+      <c r="R85">
+        <v>2.12</v>
+      </c>
+      <c r="S85">
+        <v>2.57</v>
+      </c>
+      <c r="T85">
+        <v>1.39</v>
+      </c>
+      <c r="U85">
+        <v>2.35</v>
+      </c>
+      <c r="V85">
+        <v>1.5</v>
+      </c>
+      <c r="W85">
+        <v>1.28</v>
+      </c>
+      <c r="X85">
+        <v>1.35</v>
+      </c>
+      <c r="Y85">
+        <v>1.62</v>
+      </c>
+      <c r="Z85">
+        <v>1.88</v>
+      </c>
+      <c r="AA85">
+        <v>1.24</v>
+      </c>
+      <c r="AB85">
+        <v>1.39</v>
+      </c>
+      <c r="AC85">
+        <v>0.92</v>
+      </c>
+      <c r="AD85">
+        <v>2.31</v>
+      </c>
+      <c r="AE85">
+        <v>1.59</v>
+      </c>
+      <c r="AF85">
+        <v>7.5</v>
+      </c>
+      <c r="AG85">
+        <v>2.91</v>
+      </c>
+      <c r="AH85">
+        <v>1.39</v>
+      </c>
+      <c r="AI85">
+        <v>2.76</v>
+      </c>
+      <c r="AJ85">
+        <v>1.82</v>
+      </c>
+      <c r="AK85">
+        <v>1.98</v>
+      </c>
+      <c r="AL85">
+        <v>2.15</v>
+      </c>
+      <c r="AM85">
+        <v>1.69</v>
+      </c>
+      <c r="AN85">
+        <v>2.91</v>
+      </c>
+      <c r="AO85">
         <v>1.33</v>
       </c>
-      <c r="K85">
-        <v>5</v>
-      </c>
-      <c r="L85">
-        <v>8.5</v>
-      </c>
-      <c r="M85">
-        <v>1.33</v>
-      </c>
-      <c r="N85">
-        <v>3.25</v>
-      </c>
-      <c r="O85">
-        <v>1.02</v>
-      </c>
-      <c r="P85">
-        <v>13</v>
-      </c>
-      <c r="Q85">
-        <v>1.21</v>
-      </c>
-      <c r="R85">
-        <v>4.3</v>
-      </c>
-      <c r="S85">
-        <v>1.75</v>
-      </c>
-      <c r="T85">
-        <v>2.05</v>
-      </c>
-      <c r="U85">
-        <v>2.05</v>
-      </c>
-      <c r="V85">
-        <v>1.7</v>
-      </c>
-      <c r="W85">
-        <v>1.04</v>
-      </c>
-      <c r="X85">
-        <v>1.13</v>
-      </c>
-      <c r="Y85">
-        <v>3.3</v>
-      </c>
-      <c r="Z85">
-        <v>1.64</v>
-      </c>
-      <c r="AA85">
-        <v>0.33</v>
-      </c>
-      <c r="AB85">
-        <v>1.54</v>
-      </c>
-      <c r="AC85">
-        <v>1.05</v>
-      </c>
-      <c r="AD85">
-        <v>2.59</v>
-      </c>
-      <c r="AE85">
-        <v>1.28</v>
-      </c>
-      <c r="AF85">
-        <v>9.5</v>
-      </c>
-      <c r="AG85">
-        <v>4.75</v>
-      </c>
-      <c r="AH85">
-        <v>1.29</v>
-      </c>
-      <c r="AI85">
-        <v>3.05</v>
-      </c>
-      <c r="AJ85">
-        <v>1.53</v>
-      </c>
-      <c r="AK85">
-        <v>2.25</v>
-      </c>
-      <c r="AL85">
-        <v>1.91</v>
-      </c>
-      <c r="AM85">
-        <v>1.78</v>
-      </c>
-      <c r="AN85">
-        <v>2.4</v>
-      </c>
-      <c r="AO85">
-        <v>1.47</v>
-      </c>
       <c r="AP85">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="AQ85">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="86" spans="1:43">
@@ -12361,13 +12361,13 @@
         <v>3.6</v>
       </c>
       <c r="J86">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="K86">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="L86">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="M86">
         <v>1.55</v>
@@ -12388,10 +12388,10 @@
         <v>2.5</v>
       </c>
       <c r="S86">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="T86">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="U86">
         <v>1.93</v>
@@ -12522,7 +12522,7 @@
         <v>1.62</v>
       </c>
       <c r="T87">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="U87">
         <v>0</v>
